--- a/DATA/test/PANOMIX/FULL MS_centriod_CHCA_20210819-CleanSample-616x404.xlsx
+++ b/DATA/test/PANOMIX/FULL MS_centriod_CHCA_20210819-CleanSample-616x404.xlsx
@@ -1,43 +1,82 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28110" windowHeight="12780"/>
+    <workbookView windowWidth="28110" windowHeight="12780"/>
   </bookViews>
   <sheets>
-    <sheet name="FULL MS_centriod_CHCA_20210819-" sheetId="1" r:id="rId1"/>
+    <sheet name="1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>mz</t>
   </si>
   <si>
-    <t>precursorType</t>
-  </si>
-  <si>
-    <t>kegg_id</t>
-  </si>
-  <si>
     <t>name</t>
   </si>
   <si>
     <t>formula</t>
   </si>
   <si>
-    <t>exact_mass</t>
-  </si>
-  <si>
-    <t>[M+IsoProp+H]+</t>
-  </si>
-  <si>
-    <t>C04145</t>
+    <t>1-Hexadecanoyl-2-(9Z-octadecenoyl)-sn-glycero-3-phosphonoethanolamine</t>
+  </si>
+  <si>
+    <t>C39H76NO7P</t>
+  </si>
+  <si>
+    <t>Mycolactone</t>
+  </si>
+  <si>
+    <t>C44H70O9</t>
+  </si>
+  <si>
+    <t>Mycolactone D</t>
+  </si>
+  <si>
+    <t>C45H72O9</t>
+  </si>
+  <si>
+    <t>1,2-Di-(9Z,12Z,15Z-octadecatrienoyl)-3-O-beta-D-galactosyl-sn-glycerol</t>
+  </si>
+  <si>
+    <t>C45H74O10</t>
+  </si>
+  <si>
+    <t>1-Octadecanoyl-2-(15S-hydroperoxy-5Z,8Z,11Z,13E-eicosatetraenoyl)-sn-glycero-3-phosphoethanolamine</t>
+  </si>
+  <si>
+    <t>C43H78NO10P</t>
+  </si>
+  <si>
+    <t>Tacrolimus</t>
+  </si>
+  <si>
+    <t>C44H69NO12</t>
+  </si>
+  <si>
+    <t>Pseudoargiopinin I</t>
+  </si>
+  <si>
+    <t>C36H63N12O5</t>
+  </si>
+  <si>
+    <t>1-Hexadecanoyl-2-(9Z-octadecenoyl)-sn-glycero-3-phospho-sn-glycerol 3'-phosphate</t>
+  </si>
+  <si>
+    <t>C40H78O13P2</t>
+  </si>
+  <si>
+    <t>Chlordane</t>
+  </si>
+  <si>
+    <t>C10H6Cl8</t>
   </si>
   <si>
     <t>all-trans-Nonaprenyl diphosphate</t>
@@ -46,107 +85,23 @@
     <t>C45H76O7P2</t>
   </si>
   <si>
-    <t>[M+NH4]+</t>
-  </si>
-  <si>
-    <t>C01375</t>
-  </si>
-  <si>
-    <t>Tacrolimus</t>
-  </si>
-  <si>
-    <t>C44H69NO12</t>
-  </si>
-  <si>
-    <t>[M-H2O+NH4]+</t>
-  </si>
-  <si>
-    <t>C12151</t>
-  </si>
-  <si>
-    <t>Mycolactone</t>
-  </si>
-  <si>
-    <t>C44H70O9</t>
-  </si>
-  <si>
-    <t>[M+H]+</t>
-  </si>
-  <si>
-    <t>C21483</t>
-  </si>
-  <si>
-    <t>1-Octadecanoyl-2-(15S-hydroperoxy-5Z,8Z,11Z,13E-eicosatetraenoyl)-sn-glycero-3-phosphoethanolamine</t>
-  </si>
-  <si>
-    <t>C43H78NO10P</t>
-  </si>
-  <si>
-    <t>C11312</t>
-  </si>
-  <si>
-    <t>Oligomycin B</t>
-  </si>
-  <si>
-    <t>C45H72O12</t>
-  </si>
-  <si>
-    <t>[M]+</t>
-  </si>
-  <si>
-    <t>C45H74O10</t>
-  </si>
-  <si>
-    <t>C13871</t>
-  </si>
-  <si>
-    <t>1,2-Di-(9Z,12Z,15Z-octadecatrienoyl)-3-O-beta-D-galactosyl-sn-glycerol</t>
-  </si>
-  <si>
-    <t>C21276</t>
-  </si>
-  <si>
-    <t>Mycolactone D</t>
-  </si>
-  <si>
-    <t>C45H72O9</t>
-  </si>
-  <si>
-    <t>C13885</t>
-  </si>
-  <si>
-    <t>1-Hexadecanoyl-2-(9Z-octadecenoyl)-sn-glycero-3-phospho-sn-glycerol 3'-phosphate</t>
-  </si>
-  <si>
-    <t>C40H78O13P2</t>
-  </si>
-  <si>
-    <t>C41H68O14</t>
-  </si>
-  <si>
-    <t>C17799</t>
-  </si>
-  <si>
-    <t>Astragaloside IV</t>
-  </si>
-  <si>
-    <t>[2M+H]+</t>
-  </si>
-  <si>
-    <t>C22118</t>
-  </si>
-  <si>
-    <t>4alpha-Formylergosta-7,24(24(1))-dien-3beta-ol</t>
-  </si>
-  <si>
-    <t>C29H46O2</t>
+    <t>Onnamide A</t>
+  </si>
+  <si>
+    <t>C39H63N5O12</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -155,21 +110,345 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -177,9 +456,251 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -188,10 +709,57 @@
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -453,29 +1021,26 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="109.25" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.375" customWidth="1"/>
+    <col min="2" max="2" width="46.375" customWidth="1"/>
+    <col min="3" max="3" width="13.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -485,221 +1050,133 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2">
+        <v>734.5643</v>
+      </c>
+      <c r="B2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="C2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3">
+        <v>742.5292</v>
+      </c>
+      <c r="B3" t="s">
         <v>5</v>
       </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A2">
-        <v>742.52919999999995</v>
-      </c>
-      <c r="B2" t="s">
+    <row r="4" spans="1:3">
+      <c r="A4">
+        <v>756.5464</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5">
+        <v>774.524</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6">
+        <v>800.5434</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7">
+        <v>821.523</v>
+      </c>
+      <c r="B7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" t="s">
         <v>14</v>
       </c>
-      <c r="C2" t="s">
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8">
+        <v>827.5667</v>
+      </c>
+      <c r="B8" t="s">
         <v>15</v>
       </c>
-      <c r="D2" t="s">
+      <c r="C8" t="s">
         <v>16</v>
       </c>
-      <c r="E2" t="s">
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9">
+        <v>846.5312</v>
+      </c>
+      <c r="B9" t="s">
         <v>17</v>
       </c>
-      <c r="F2">
-        <v>742.50195699999995</v>
+      <c r="C9" t="s">
+        <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A3">
-        <v>756.54639999999995</v>
-      </c>
-      <c r="B3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E3" t="s">
-        <v>31</v>
-      </c>
-      <c r="F3">
-        <v>756.51760620000005</v>
+    <row r="10" spans="1:3">
+      <c r="A10">
+        <v>850.5589</v>
+      </c>
+      <c r="B10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" t="s">
+        <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A4">
-        <v>774.524</v>
-      </c>
-      <c r="B4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D4" t="s">
-        <v>28</v>
-      </c>
-      <c r="E4" t="s">
-        <v>26</v>
-      </c>
-      <c r="F4">
-        <v>774.52817040000002</v>
+    <row r="11" spans="1:3">
+      <c r="A11">
+        <v>851.5668</v>
+      </c>
+      <c r="B11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" t="s">
+        <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A5">
-        <v>800.54340000000002</v>
-      </c>
-      <c r="B5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E5" t="s">
-        <v>21</v>
-      </c>
-      <c r="F5">
-        <v>799.53630580000004</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A6">
-        <v>821.52300000000002</v>
-      </c>
-      <c r="B6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E6" t="s">
-        <v>13</v>
-      </c>
-      <c r="F6">
-        <v>803.48195139999996</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A7">
-        <v>822.53200000000004</v>
-      </c>
-      <c r="B7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" t="s">
-        <v>22</v>
-      </c>
-      <c r="D7" t="s">
+    <row r="12" spans="1:3">
+      <c r="A12">
+        <v>872.4771</v>
+      </c>
+      <c r="B12" t="s">
         <v>23</v>
       </c>
-      <c r="E7" t="s">
+      <c r="C12" t="s">
         <v>24</v>
-      </c>
-      <c r="F7">
-        <v>804.50235120000002</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A8">
-        <v>845.52359999999999</v>
-      </c>
-      <c r="B8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" t="s">
-        <v>36</v>
-      </c>
-      <c r="D8" t="s">
-        <v>37</v>
-      </c>
-      <c r="E8" t="s">
-        <v>35</v>
-      </c>
-      <c r="F8">
-        <v>784.46088280000004</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A9">
-        <v>846.53120000000001</v>
-      </c>
-      <c r="B9" t="s">
-        <v>10</v>
-      </c>
-      <c r="C9" t="s">
-        <v>32</v>
-      </c>
-      <c r="D9" t="s">
-        <v>33</v>
-      </c>
-      <c r="E9" t="s">
-        <v>34</v>
-      </c>
-      <c r="F9">
-        <v>828.4917398</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A10">
-        <v>851.56679999999994</v>
-      </c>
-      <c r="B10" t="s">
-        <v>6</v>
-      </c>
-      <c r="C10" t="s">
-        <v>7</v>
-      </c>
-      <c r="D10" t="s">
-        <v>8</v>
-      </c>
-      <c r="E10" t="s">
-        <v>9</v>
-      </c>
-      <c r="F10">
-        <v>790.50660059999996</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A11">
-        <v>853.71450000000004</v>
-      </c>
-      <c r="B11" t="s">
-        <v>38</v>
-      </c>
-      <c r="C11" t="s">
-        <v>39</v>
-      </c>
-      <c r="D11" t="s">
-        <v>40</v>
-      </c>
-      <c r="E11" t="s">
-        <v>41</v>
-      </c>
-      <c r="F11">
-        <v>426.34976160000002</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:F40">
-    <sortCondition ref="A2:A40"/>
+  <sortState ref="A2:D38">
+    <sortCondition ref="A2:A38"/>
   </sortState>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>